--- a/Misión_TIC_prueba.xlsx
+++ b/Misión_TIC_prueba.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Github\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B09BD-7844-4D51-A858-268A25F2C760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3FA04A-AFC7-4A72-9F32-163FDBEC22CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos sin procesar" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Datos sin procesar'!$A$1:$AA$253</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="71">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -245,9 +248,6 @@
   <si>
     <t>Estrategias para trabajar en grupo</t>
   </si>
-  <si>
-    <t xml:space="preserve">5 horas </t>
-  </si>
 </sst>
 </file>
 
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,19 +636,19 @@
   <dimension ref="A1:AA325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="2"/>
-    <col min="26" max="27" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="25" width="9.1796875" style="2"/>
+    <col min="26" max="27" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>112690450</v>
       </c>
@@ -799,7 +799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>112702079</v>
       </c>
@@ -852,7 +852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>112769197</v>
       </c>
@@ -920,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>112799322.333333</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>112838695.833333</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>112878069.333333</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>112917442.833333</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>112956816.333333</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>112996189.833333</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>113035563.333333</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>113074936.833333</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>113114310.333333</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>113153683.833333</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>113193057.333333</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>113232430.833333</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>113271804.333333</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>113311177.833333</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>113350551.333333</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>113389924.833333</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>113429298.333333</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>113468671.833333</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>113508045.333333</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>113547418.833333</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>113586792.333333</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>113626165.833333</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>113665539.333333</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>113704912.833333</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>113744286.333333</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>113783659.833333</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>113823033.333333</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>113862406.833333</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>113901780.333333</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>113941153.833333</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>113980527.333333</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>114019900.833333</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>114059274.333333</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>114098647.833333</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>114138021.333333</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>114177394.833333</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>114216768.333333</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>114256141.833333</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>114295515.333333</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>114334888.833333</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>114374262.333333</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>114413635.833333</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>114453009.333333</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>114492382.833333</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>114531756.333333</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>114571129.833333</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>114610503.333333</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>114649876.833333</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>114689250.333333</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>114728623.833333</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>114767997.333333</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>114807370.833333</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>114846744.333333</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>114886117.833333</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>114925491.333333</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>114964864.833333</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>115004238.333333</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>115043611.833333</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>115082985.333333</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>115122358.833333</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>115161732.333333</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>115201105.833333</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>115240479.333333</v>
       </c>
@@ -5936,10 +5936,10 @@
         <v>21</v>
       </c>
       <c r="AA67" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>115279852.833333</v>
       </c>
@@ -6019,10 +6019,10 @@
         <v>19</v>
       </c>
       <c r="AA68" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>115319226.333333</v>
       </c>
@@ -6102,10 +6102,10 @@
         <v>19</v>
       </c>
       <c r="AA69" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>115358599.833333</v>
       </c>
@@ -6185,10 +6185,10 @@
         <v>19</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>115397973.333333</v>
       </c>
@@ -6268,10 +6268,10 @@
         <v>19</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>115437346.833333</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>115476720.333333</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>115516093.833333</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>115555467.333333</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>115594840.833333</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>115634214.333333</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>115673587.833333</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>115712961.333333</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>115752334.833333</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>115791708.333333</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>115831081.833333</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>115870455.333333</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>115909828.833333</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>115949202.333333</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>115988575.833333</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>116027949.333333</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>116067322.833333</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>116106696.333333</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>116146069.833333</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>116185443.333333</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>116224816.833333</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>116264190.333333</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>116303563.833333</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>116342937.333333</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>116382310.833333</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>116421684.333333</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>116461057.833333</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>116500431.333333</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>116539804.833333</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>116579178.333333</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>116618551.833333</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>116657925.333333</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>116697298.833333</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>116736672.333333</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>116776045.833333</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>116815419.333333</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>116854792.833333</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>116894166.333333</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>116933539.833333</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>116972913.333333</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>117012286.833333</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>117051660.333333</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>117091033.833333</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>117130407.333333</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>117169780.833333</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>117209154.333333</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117248527.833333</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117287901.333333</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>117327274.833333</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>117366648.333333</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>117406021.833333</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>117445395.333333</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>117484768.833333</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>117524142.333333</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>117563515.833333</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>117602889.333333</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>117642262.833333</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>117681636.333333</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>117721009.833333</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>117760383.333333</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>117799756.833333</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>117839130.333333</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>117878503.833333</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>117917877.333333</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>117957250.833333</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>117996624.333333</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>118035997.833333</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>118075371.333333</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>118114744.833333</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>118154118.333333</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>118193491.833333</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>118232865.333333</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>118272238.833333</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>118311612.333333</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>118350985.833333</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>118390359.333333</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>118429732.833333</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>118469106.333333</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>118508479.833333</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>118547853.333333</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>118587226.833333</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>118626600.333333</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>118665973.833333</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>118705347.333333</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>118744720.833333</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>118784094.333333</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>118823467.833333</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>118862841.333333</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>118902214.833333</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>118941588.333333</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>118980961.833333</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>119020335.333333</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>119059708.833333</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>119099082.333333</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>119138455.833333</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>119177829.333333</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>119217202.833333</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>119256576.333333</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>119295949.833333</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>119335323.333333</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>119374696.833333</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>119414070.333333</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>119453443.833333</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>119492817.333333</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>119532190.833333</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>119571564.333333</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>119610937.833333</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>119650311.333333</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>119689684.833333</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>119729058.333333</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>119768431.833333</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>119807805.333333</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>119847178.833333</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>119886552.333333</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>119925925.833333</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>119965299.333333</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>120004672.833333</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>120044046.333333</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>120083419.833333</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>120122793.333333</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>120162166.833333</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>120201540.333333</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>120240913.833333</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>120280287.333333</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>120319660.833333</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>120359034.333333</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>120398407.833333</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>120437781.333333</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>120477154.833333</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>120516528.333333</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>120555901.833333</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>120595275.333333</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>120634648.833333</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>120674022.333333</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>120713395.833333</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>120752769.333333</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>120792142.833333</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>120831516.333333</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>120870889.833333</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>120910263.333333</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>120949636.833333</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>120989010.333333</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>121028383.833333</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>121067757.333333</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>121107130.833333</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>121146504.333333</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>121185877.833333</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>121225251.333333</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>121264624.833333</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>121303998.333333</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>121343371.833333</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>121382745.333333</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>121422118.833333</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>121461492.333333</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>121500865.833333</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>121540239.333333</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>121579612.833333</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>121618986.333333</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>121658359.833333</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>121697733.333333</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>121737106.833333</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>121776480.333333</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>121815853.833333</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>121855227.333333</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>121894600.833333</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>121933974.333333</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>121973347.833333</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>122012721.333333</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>122052094.833333</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>122091468.333333</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>122130841.833333</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>122170215.333333</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>122209588.833333</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>122248962.333333</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>122288335.833333</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>122327709.333333</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>122367082.833333</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>122406456.333333</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>122445829.833333</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>122485203.333333</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>122524576.833333</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>122563950.333333</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.35">
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
@@ -21390,7 +21390,7 @@
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.35">
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
@@ -21403,7 +21403,7 @@
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.35">
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
@@ -21416,7 +21416,7 @@
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
     </row>
-    <row r="257" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
@@ -21429,7 +21429,7 @@
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
     </row>
-    <row r="258" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
@@ -21437,7 +21437,7 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
     </row>
-    <row r="259" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
@@ -21445,7 +21445,7 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
     </row>
-    <row r="260" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
@@ -21453,7 +21453,7 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
     </row>
-    <row r="261" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
       <c r="M261" s="3"/>
@@ -21461,7 +21461,7 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
     </row>
-    <row r="262" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
       <c r="M262" s="3"/>
@@ -21469,7 +21469,7 @@
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
     </row>
-    <row r="263" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
       <c r="M263" s="3"/>
@@ -21477,7 +21477,7 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
     </row>
-    <row r="264" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
@@ -21485,7 +21485,7 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
     </row>
-    <row r="265" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
@@ -21493,7 +21493,7 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
     </row>
-    <row r="266" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
@@ -21501,7 +21501,7 @@
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
     </row>
-    <row r="267" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
@@ -21509,7 +21509,7 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
     </row>
-    <row r="268" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
       <c r="M268" s="3"/>
@@ -21517,7 +21517,7 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
     </row>
-    <row r="269" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
@@ -21525,7 +21525,7 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
     </row>
-    <row r="270" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
@@ -21533,7 +21533,7 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
     </row>
-    <row r="271" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
       <c r="M271" s="3"/>
@@ -21541,7 +21541,7 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
     </row>
-    <row r="272" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="11:22" x14ac:dyDescent="0.35">
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
@@ -21549,7 +21549,7 @@
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
     </row>
-    <row r="273" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
@@ -21557,7 +21557,7 @@
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
     </row>
-    <row r="274" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
@@ -21565,7 +21565,7 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
     </row>
-    <row r="275" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
@@ -21573,7 +21573,7 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
     </row>
-    <row r="276" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
@@ -21581,7 +21581,7 @@
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
     </row>
-    <row r="277" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
@@ -21589,7 +21589,7 @@
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
     </row>
-    <row r="278" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
       <c r="M278" s="3"/>
@@ -21597,7 +21597,7 @@
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
@@ -21605,7 +21605,7 @@
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
@@ -21613,7 +21613,7 @@
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
     </row>
-    <row r="281" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
@@ -21621,7 +21621,7 @@
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
     </row>
-    <row r="282" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
       <c r="M282" s="3"/>
@@ -21629,7 +21629,7 @@
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
     </row>
-    <row r="283" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
@@ -21637,7 +21637,7 @@
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
@@ -21645,7 +21645,7 @@
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
     </row>
-    <row r="285" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
@@ -21653,7 +21653,7 @@
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3"/>
@@ -21661,7 +21661,7 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
@@ -21669,7 +21669,7 @@
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
     </row>
-    <row r="288" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
       <c r="M288" s="3"/>
@@ -21677,7 +21677,7 @@
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
     </row>
-    <row r="289" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
@@ -21685,7 +21685,7 @@
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
     </row>
-    <row r="290" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
       <c r="M290" s="3"/>
@@ -21693,7 +21693,7 @@
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
     </row>
-    <row r="291" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
@@ -21701,7 +21701,7 @@
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
     </row>
-    <row r="292" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
       <c r="M292" s="3"/>
@@ -21709,7 +21709,7 @@
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
     </row>
-    <row r="293" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
       <c r="M293" s="3"/>
@@ -21717,7 +21717,7 @@
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
     </row>
-    <row r="294" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
@@ -21725,7 +21725,7 @@
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
     </row>
-    <row r="295" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
@@ -21733,7 +21733,7 @@
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
     </row>
-    <row r="296" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
@@ -21741,7 +21741,7 @@
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
     </row>
-    <row r="297" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
@@ -21749,7 +21749,7 @@
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
     </row>
-    <row r="298" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
@@ -21757,7 +21757,7 @@
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
     </row>
-    <row r="299" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
       <c r="M299" s="3"/>
@@ -21765,7 +21765,7 @@
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
     </row>
-    <row r="300" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
@@ -21773,7 +21773,7 @@
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
     </row>
-    <row r="301" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3"/>
@@ -21781,7 +21781,7 @@
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
     </row>
-    <row r="302" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
       <c r="M302" s="3"/>
@@ -21789,7 +21789,7 @@
       <c r="O302" s="3"/>
       <c r="P302" s="3"/>
     </row>
-    <row r="303" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
@@ -21797,7 +21797,7 @@
       <c r="O303" s="3"/>
       <c r="P303" s="3"/>
     </row>
-    <row r="304" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
       <c r="M304" s="3"/>
@@ -21805,7 +21805,7 @@
       <c r="O304" s="3"/>
       <c r="P304" s="3"/>
     </row>
-    <row r="305" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
       <c r="M305" s="3"/>
@@ -21813,7 +21813,7 @@
       <c r="O305" s="3"/>
       <c r="P305" s="3"/>
     </row>
-    <row r="306" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
       <c r="M306" s="3"/>
@@ -21821,7 +21821,7 @@
       <c r="O306" s="3"/>
       <c r="P306" s="3"/>
     </row>
-    <row r="307" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
@@ -21829,7 +21829,7 @@
       <c r="O307" s="3"/>
       <c r="P307" s="3"/>
     </row>
-    <row r="308" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
       <c r="M308" s="3"/>
@@ -21837,7 +21837,7 @@
       <c r="O308" s="3"/>
       <c r="P308" s="3"/>
     </row>
-    <row r="309" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
       <c r="M309" s="3"/>
@@ -21845,7 +21845,7 @@
       <c r="O309" s="3"/>
       <c r="P309" s="3"/>
     </row>
-    <row r="310" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
       <c r="M310" s="3"/>
@@ -21853,7 +21853,7 @@
       <c r="O310" s="3"/>
       <c r="P310" s="3"/>
     </row>
-    <row r="311" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3"/>
@@ -21861,7 +21861,7 @@
       <c r="O311" s="3"/>
       <c r="P311" s="3"/>
     </row>
-    <row r="312" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
       <c r="M312" s="3"/>
@@ -21869,7 +21869,7 @@
       <c r="O312" s="3"/>
       <c r="P312" s="3"/>
     </row>
-    <row r="313" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
@@ -21877,7 +21877,7 @@
       <c r="O313" s="3"/>
       <c r="P313" s="3"/>
     </row>
-    <row r="314" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
@@ -21885,7 +21885,7 @@
       <c r="O314" s="3"/>
       <c r="P314" s="3"/>
     </row>
-    <row r="315" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
@@ -21893,7 +21893,7 @@
       <c r="O315" s="3"/>
       <c r="P315" s="3"/>
     </row>
-    <row r="316" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
       <c r="M316" s="3"/>
@@ -21901,7 +21901,7 @@
       <c r="O316" s="3"/>
       <c r="P316" s="3"/>
     </row>
-    <row r="317" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
@@ -21909,7 +21909,7 @@
       <c r="O317" s="3"/>
       <c r="P317" s="3"/>
     </row>
-    <row r="318" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
@@ -21917,25 +21917,25 @@
       <c r="O318" s="3"/>
       <c r="P318" s="3"/>
     </row>
-    <row r="319" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K324" s="3"/>
     </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K325" s="3"/>
     </row>
   </sheetData>
